--- a/src/assets/images/exchangeImportExcel.xlsx
+++ b/src/assets/images/exchangeImportExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work Project\Admin\chhayvann\src\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BCBFB-A139-4E7B-A7D6-865827F7726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E7F230-9B68-4B91-B0B7-A447B2895CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D789F07-05B6-463E-81A6-514248CF6EB6}"/>
+    <workbookView xWindow="3600" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{7D789F07-05B6-463E-81A6-514248CF6EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>from</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>https://api.chhayvann.com.kh/uploads/exchange/CamGoTech_vqUg9lERbAtAx28K8zpOJK4C0AsKfrA7sF0zwThY.webp</t>
+  </si>
+  <si>
+    <t>ordering</t>
   </si>
 </sst>
 </file>
@@ -420,18 +423,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96A06F6-4A90-4DE0-A782-889FC55208D8}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="43.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,10 +448,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -461,13 +467,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{7E121538-C1AC-450B-931D-9DB577E0C767}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{7E121538-C1AC-450B-931D-9DB577E0C767}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
